--- a/TSAL/TSAL REV2/TSAL_REV2_2/Released/BOM/Bill of Materials-TSAL_REV2_2.xlsx
+++ b/TSAL/TSAL REV2/TSAL_REV2_2/Released/BOM/Bill of Materials-TSAL_REV2_2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E163A7E-357C-4593-8C04-3066779FE7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F7042F-AC1E-44D7-818E-CF2151809875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1956" windowWidth="17280" windowHeight="9024" xr2:uid="{8B88E976-7DA8-4E5F-AFB9-3F7F996FEC83}"/>
+    <workbookView xWindow="0" yWindow="1956" windowWidth="17280" windowHeight="9024" xr2:uid="{0A8442B2-3FF1-480C-976F-AB7C95B2AB86}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-TSAL_REV2_2" sheetId="1" r:id="rId1"/>
@@ -698,7 +698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEEC1DF-3DB8-48F7-A645-8B8AF7802616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1167838F-4967-47E5-8E20-EDDDD47D58E1}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
